--- a/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
+++ b/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$Q$1:$Q$86</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="210">
   <si>
     <t>Asignatura</t>
   </si>
@@ -539,18 +534,9 @@
     <t>2° ESO</t>
   </si>
   <si>
-    <t>Recurso M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcula usando la razón de semejanza </t>
-  </si>
-  <si>
     <t>Verificar que se adapte a Colombia</t>
   </si>
   <si>
-    <t>Recurso Diap F1-01</t>
-  </si>
-  <si>
     <t>Recurso F8-01</t>
   </si>
   <si>
@@ -633,6 +619,36 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recursos M aleatorios y diaporama F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>MT_08_09</t>
+  </si>
+  <si>
+    <t>MT_3C_19</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Coordenadas, semejanza y proporcionalidad</t>
+  </si>
+  <si>
+    <t>La proporcionalidad geométrica</t>
+  </si>
+  <si>
+    <t>Practica con la semejanza de triángulos</t>
   </si>
 </sst>
 </file>
@@ -1021,83 +1037,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,6 +1328,81 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="103">
@@ -1547,7 +1566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,7 +1601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1791,3364 +1810,3192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U300"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F24:F25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94:O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="23" style="68" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="68" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="120" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="121" customWidth="1"/>
-    <col min="7" max="7" width="66.28515625" style="68" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="122" customWidth="1"/>
-    <col min="9" max="9" width="11" style="122" customWidth="1"/>
-    <col min="10" max="10" width="59.28515625" style="68" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="68" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="68" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="68" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="122" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="122" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="122" customWidth="1"/>
-    <col min="18" max="18" width="23" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="68" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="68"/>
+    <col min="1" max="1" width="16.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="23" style="44" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="66.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="98" customWidth="1"/>
+    <col min="9" max="9" width="11" style="98" customWidth="1"/>
+    <col min="10" max="10" width="59.28515625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="44" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="44" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="98" customWidth="1"/>
+    <col min="16" max="16" width="21" style="98" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="98" customWidth="1"/>
+    <col min="18" max="18" width="23" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="44" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="120"/>
+      <c r="O1" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="102" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="23" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="25"/>
-    </row>
-    <row r="3" spans="1:21" s="55" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="103"/>
+    </row>
+    <row r="3" spans="1:21" s="31" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="69" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="51" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="28">
         <v>6</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="S3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="T3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="22">
         <v>2</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>6</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="22">
+        <v>3</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>6</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>6</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="22">
+        <v>5</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="22">
+        <v>6</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="R8" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="22">
+        <v>7</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>6</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="22">
+        <v>8</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>8</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="22">
+        <v>9</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>5</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="22">
+        <v>10</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>6</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="22">
+        <v>11</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>6</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="U13" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="22">
+        <v>12</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>8</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="22">
+        <v>13</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>8</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="22">
+        <v>14</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="40">
+        <v>8</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="U16" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="22">
+        <v>15</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>6</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="U17" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="22">
+        <v>16</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>6</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="22">
+        <v>17</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="40">
+        <v>6</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="22">
+        <v>18</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="40">
+        <v>8</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S20" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="22">
+        <v>19</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="40">
+        <v>8</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S21" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="U21" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="40">
+        <v>6</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="U22" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="22">
+        <v>21</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>8</v>
+      </c>
+      <c r="R23" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T23" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="22">
+        <v>22</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>8</v>
+      </c>
+      <c r="R24" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S24" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="U24" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="22">
+        <v>23</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>8</v>
+      </c>
+      <c r="R25" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S25" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="U25" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="22">
+        <v>24</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>6</v>
+      </c>
+      <c r="R26" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S26" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="22">
+        <v>25</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>8</v>
+      </c>
+      <c r="R27" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="S27" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="T27" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="U27" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="H28" s="22">
+        <v>26</v>
+      </c>
+      <c r="I28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="J28" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="M28" s="9"/>
+      <c r="N28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q28" s="40">
         <v>6</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R28" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S28" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" s="52" t="s">
+      <c r="T28" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="U28" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="29" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B29" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C29" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="63">
-        <v>3</v>
-      </c>
-      <c r="I5" s="59" t="s">
+      <c r="D29" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="22">
+        <v>27</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="49" t="s">
+      <c r="Q29" s="40">
+        <v>6</v>
+      </c>
+      <c r="R29" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="22">
+        <v>28</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="63" t="s">
+      <c r="J30" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="L30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="53"/>
+    </row>
+    <row r="31" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="22">
+        <v>29</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="51"/>
+      <c r="P31" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="40">
         <v>6</v>
       </c>
-      <c r="R5" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T5" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="R31" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="T31" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="U31" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C32" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="46">
-        <v>4</v>
-      </c>
-      <c r="I6" s="59" t="s">
+      <c r="D32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="22">
+        <v>30</v>
+      </c>
+      <c r="I32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="49" t="s">
+      <c r="J32" s="43"/>
+      <c r="K32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L32" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="52">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="40">
         <v>6</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R32" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="T6" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="64" t="s">
+      <c r="T32" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="U32" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="46">
-        <v>5</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="63">
-        <v>6</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="U8" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="46">
-        <v>7</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="64">
-        <v>6</v>
-      </c>
-      <c r="R9" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="U9" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="46">
-        <v>8</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R10" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T10" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="46">
-        <v>9</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T11" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="63">
-        <v>10</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="64">
-        <v>6</v>
-      </c>
-      <c r="R12" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="U12" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="46">
-        <v>11</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="P13" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="64">
-        <v>6</v>
-      </c>
-      <c r="R13" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T13" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="U13" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="46">
-        <v>12</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="P14" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R14" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="U14" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="63">
-        <v>13</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R15" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S15" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T15" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="U15" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="46">
-        <v>14</v>
-      </c>
-      <c r="I16" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="P16" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R16" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T16" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="U16" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="46">
-        <v>15</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="P17" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="64">
-        <v>6</v>
-      </c>
-      <c r="R17" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="U17" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="46">
-        <v>16</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="64">
-        <v>6</v>
-      </c>
-      <c r="R18" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S18" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T18" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="U18" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="63">
-        <v>17</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="P19" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="64">
-        <v>6</v>
-      </c>
-      <c r="R19" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T19" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="U19" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="46">
-        <v>18</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R20" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T20" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="U20" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="46">
-        <v>19</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R21" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S21" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T21" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="55" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="63">
-        <v>20</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="P22" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="64">
-        <v>6</v>
-      </c>
-      <c r="R22" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T22" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="U22" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="46">
-        <v>21</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R23" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S23" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T23" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="U23" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="63">
-        <v>23</v>
-      </c>
-      <c r="I24" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="P24" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R24" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S24" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T24" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="46">
-        <v>24</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="P25" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R25" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="S25" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T25" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="U25" s="64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="46">
-        <v>25</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="P26" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="64">
-        <v>6</v>
-      </c>
-      <c r="R26" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S26" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T26" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="U26" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="46">
-        <v>26</v>
-      </c>
-      <c r="I27" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="P27" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="R27" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S27" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T27" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="U27" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="46">
-        <v>27</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="64">
-        <v>6</v>
-      </c>
-      <c r="R28" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T28" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="U28" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="H29" s="63">
-        <v>28</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="O29" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="64">
-        <v>6</v>
-      </c>
-      <c r="R29" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S29" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T29" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="U29" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="46">
-        <v>29</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="77"/>
-    </row>
-    <row r="31" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="46">
-        <v>30</v>
-      </c>
-      <c r="I31" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="64">
-        <v>6</v>
-      </c>
-      <c r="R31" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S31" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T31" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="U31" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="63">
-        <v>32</v>
-      </c>
-      <c r="I32" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="64">
-        <v>6</v>
-      </c>
-      <c r="R32" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="S32" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="T32" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="U32" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="91"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="67"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="91"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="67"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="91"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="67"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="91"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="67"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="91"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="67"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="91"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="67"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="102"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="78"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="102"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="78"/>
     </row>
     <row r="41" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="102"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="78"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="100"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="104"/>
-      <c r="U42" s="102"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="78"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="107"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="83"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="102"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="78"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="107"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="84"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="83"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="117"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="93"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="117"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="93"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="117"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="119"/>
-      <c r="U48" s="117"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="93"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="93"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="117"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="117"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="95"/>
+      <c r="U49" s="93"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="117"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="117"/>
-      <c r="T50" s="119"/>
-      <c r="U50" s="117"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="93"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="117"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="93"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="117"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="117"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="117"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="93"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="114"/>
-      <c r="Q53" s="117"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="117"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="117"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="93"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="117"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="117"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="117"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="93"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="117"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="93"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="117"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="117"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="93"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="93"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
-      <c r="Q57" s="117"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="117"/>
-      <c r="T57" s="119"/>
-      <c r="U57" s="117"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="93"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="93"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="117"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="117"/>
-      <c r="T58" s="119"/>
-      <c r="U58" s="117"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="93"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="93"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="117"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="117"/>
-      <c r="T59" s="119"/>
-      <c r="U59" s="117"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="93"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="93"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="117"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="93"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="93"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="117"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="117"/>
-      <c r="T61" s="119"/>
-      <c r="U61" s="117"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="95"/>
+      <c r="U61" s="93"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="117"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="117"/>
-      <c r="T62" s="119"/>
-      <c r="U62" s="117"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="95"/>
+      <c r="U62" s="93"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="118"/>
-      <c r="S63" s="117"/>
-      <c r="T63" s="119"/>
-      <c r="U63" s="117"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="95"/>
+      <c r="U63" s="93"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="119"/>
-      <c r="U64" s="117"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="93"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="93"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="114"/>
-      <c r="Q65" s="117"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="117"/>
-      <c r="T65" s="119"/>
-      <c r="U65" s="117"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="93"/>
+      <c r="T65" s="95"/>
+      <c r="U65" s="93"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="117"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="93"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="93"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="114"/>
-      <c r="Q67" s="117"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="117"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="117"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="93"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="93"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="114"/>
-      <c r="P68" s="114"/>
-      <c r="Q68" s="117"/>
-      <c r="R68" s="118"/>
-      <c r="S68" s="117"/>
-      <c r="T68" s="119"/>
-      <c r="U68" s="117"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="90"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="93"/>
+      <c r="T68" s="95"/>
+      <c r="U68" s="93"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="117"/>
-      <c r="R69" s="118"/>
-      <c r="S69" s="117"/>
-      <c r="T69" s="119"/>
-      <c r="U69" s="117"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="93"/>
+      <c r="T69" s="95"/>
+      <c r="U69" s="93"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
-      <c r="B70" s="111"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="118"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="119"/>
-      <c r="U70" s="117"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="93"/>
+      <c r="T70" s="95"/>
+      <c r="U70" s="93"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="113"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="114"/>
-      <c r="Q71" s="117"/>
-      <c r="R71" s="118"/>
-      <c r="S71" s="117"/>
-      <c r="T71" s="119"/>
-      <c r="U71" s="117"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="95"/>
+      <c r="U71" s="93"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="117"/>
-      <c r="R72" s="118"/>
-      <c r="S72" s="117"/>
-      <c r="T72" s="119"/>
-      <c r="U72" s="117"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="90"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="93"/>
+      <c r="T72" s="95"/>
+      <c r="U72" s="93"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="114"/>
-      <c r="Q73" s="117"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="117"/>
-      <c r="T73" s="119"/>
-      <c r="U73" s="117"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="93"/>
+      <c r="T73" s="95"/>
+      <c r="U73" s="93"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="115"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="114"/>
-      <c r="Q74" s="117"/>
-      <c r="R74" s="118"/>
-      <c r="S74" s="117"/>
-      <c r="T74" s="119"/>
-      <c r="U74" s="117"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="93"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="93"/>
+      <c r="T74" s="95"/>
+      <c r="U74" s="93"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="112"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="113"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="114"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="118"/>
-      <c r="S75" s="117"/>
-      <c r="T75" s="119"/>
-      <c r="U75" s="117"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="93"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="93"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="114"/>
-      <c r="P76" s="114"/>
-      <c r="Q76" s="117"/>
-      <c r="R76" s="118"/>
-      <c r="S76" s="117"/>
-      <c r="T76" s="119"/>
-      <c r="U76" s="117"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="90"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="93"/>
+      <c r="T76" s="95"/>
+      <c r="U76" s="93"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="114"/>
-      <c r="Q77" s="117"/>
-      <c r="R77" s="118"/>
-      <c r="S77" s="117"/>
-      <c r="T77" s="119"/>
-      <c r="U77" s="117"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="93"/>
+      <c r="T77" s="95"/>
+      <c r="U77" s="93"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="113"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="114"/>
-      <c r="Q78" s="117"/>
-      <c r="R78" s="118"/>
-      <c r="S78" s="117"/>
-      <c r="T78" s="119"/>
-      <c r="U78" s="117"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="90"/>
+      <c r="P78" s="90"/>
+      <c r="Q78" s="93"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="93"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="93"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="117"/>
-      <c r="R79" s="118"/>
-      <c r="S79" s="117"/>
-      <c r="T79" s="119"/>
-      <c r="U79" s="117"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="93"/>
+      <c r="T79" s="95"/>
+      <c r="U79" s="93"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="113"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="117"/>
-      <c r="R80" s="118"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="119"/>
-      <c r="U80" s="117"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="114"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="117"/>
-      <c r="R81" s="118"/>
-      <c r="S81" s="117"/>
-      <c r="T81" s="119"/>
-      <c r="U81" s="117"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="111"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="117"/>
-      <c r="R82" s="118"/>
-      <c r="S82" s="117"/>
-      <c r="T82" s="119"/>
-      <c r="U82" s="117"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="114"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="114"/>
-      <c r="P83" s="114"/>
-      <c r="Q83" s="117"/>
-      <c r="R83" s="118"/>
-      <c r="S83" s="117"/>
-      <c r="T83" s="119"/>
-      <c r="U83" s="117"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="111"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="113"/>
-      <c r="H84" s="114"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="117"/>
-      <c r="R84" s="118"/>
-      <c r="S84" s="117"/>
-      <c r="T84" s="119"/>
-      <c r="U84" s="117"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="111"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="115"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="117"/>
-      <c r="R85" s="118"/>
-      <c r="S85" s="117"/>
-      <c r="T85" s="119"/>
-      <c r="U85" s="117"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="113"/>
-      <c r="H86" s="114"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="117"/>
-      <c r="R86" s="118"/>
-      <c r="S86" s="117"/>
-      <c r="T86" s="119"/>
-      <c r="U86" s="117"/>
-    </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="90"/>
+      <c r="P80" s="90"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="93"/>
+      <c r="T80" s="95"/>
+      <c r="U80" s="93"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="90"/>
+      <c r="Q81" s="93"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="93"/>
+      <c r="T81" s="95"/>
+      <c r="U81" s="93"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="90"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="95"/>
+      <c r="U82" s="93"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="90"/>
+      <c r="P83" s="90"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="93"/>
+      <c r="T83" s="95"/>
+      <c r="U83" s="93"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="90"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="90"/>
+      <c r="P84" s="90"/>
+      <c r="Q84" s="93"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="93"/>
+      <c r="T84" s="95"/>
+      <c r="U84" s="93"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="90"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="90"/>
+      <c r="P85" s="90"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="93"/>
+      <c r="T85" s="95"/>
+      <c r="U85" s="93"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="90"/>
+      <c r="P86" s="90"/>
+      <c r="Q86" s="93"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="93"/>
+      <c r="T86" s="95"/>
+      <c r="U86" s="93"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="98"/>
+      <c r="V91" s="98"/>
+      <c r="W91" s="98"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q92" s="99"/>
+      <c r="R92" s="99"/>
+      <c r="S92" s="99"/>
+      <c r="T92" s="99"/>
+      <c r="U92" s="99"/>
+      <c r="V92" s="98"/>
+      <c r="W92" s="98"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R93" s="98"/>
+      <c r="S93" s="98"/>
+      <c r="T93" s="98"/>
+      <c r="U93" s="98"/>
+      <c r="V93" s="98"/>
+      <c r="W93" s="98"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R94" s="98"/>
+      <c r="S94" s="98"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="98"/>
+      <c r="V94" s="98"/>
+      <c r="W94" s="98"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U96" s="98"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U35">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -5219,6 +5066,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView topLeftCell="C20" workbookViewId="0">

--- a/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
+++ b/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="215">
   <si>
     <t>Asignatura</t>
   </si>
@@ -396,12 +401,6 @@
     <t>Emplear imágenes con explicaciones sobre: razón entre segmentos, proporcion entre segmentos, segmentos proporcionales</t>
   </si>
   <si>
-    <t>Resolución de problemas de medidas empleando criterios de semejanza</t>
-  </si>
-  <si>
-    <t>Proyecto uso de homotecias para construir figuras a diferentes escalas</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -649,6 +648,27 @@
   </si>
   <si>
     <t>Practica con la semejanza de triángulos</t>
+  </si>
+  <si>
+    <t>Johanna Vera</t>
+  </si>
+  <si>
+    <t>Sandra Ortiz</t>
+  </si>
+  <si>
+    <t>Julian David</t>
+  </si>
+  <si>
+    <t>Jennifer Rojas</t>
+  </si>
+  <si>
+    <t>Resolución de problemas de medidas empleando criterios de semejanza. Construir en F13</t>
+  </si>
+  <si>
+    <t>Proyecto uso de homotecias para construir figuras a diferentes escalas. Construir en F13</t>
+  </si>
+  <si>
+    <t>Adriana Lasprilla</t>
   </si>
 </sst>
 </file>
@@ -1332,12 +1352,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,54 +1422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,7 +1586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,7 +1621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1813,8 +1833,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O94" sqref="O94:O95"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1832,107 +1852,107 @@
     <col min="11" max="11" width="13.28515625" style="44" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="44" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="44" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="98" customWidth="1"/>
-    <col min="16" max="16" width="21" style="98" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="98" customWidth="1"/>
-    <col min="18" max="18" width="23" style="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="98" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="98" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="98" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23" style="44" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="44" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="44" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="44" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="120" t="s">
+      <c r="M1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="120"/>
-      <c r="O1" s="100" t="s">
+      <c r="N1" s="114"/>
+      <c r="O1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="106" t="s">
+      <c r="R1" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="S1" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="118" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="115"/>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="103"/>
-    </row>
-    <row r="3" spans="1:21" s="31" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="119"/>
+    </row>
+    <row r="3" spans="1:22" s="31" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
@@ -1957,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>20</v>
@@ -1970,7 +1990,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>20</v>
@@ -1990,8 +2010,11 @@
       <c r="U3" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V3" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -2009,7 +2032,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H4" s="22">
         <v>2</v>
@@ -2018,7 +2041,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>20</v>
@@ -2031,7 +2054,7 @@
         <v>84</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>19</v>
@@ -2046,13 +2069,16 @@
         <v>91</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2111,7 +2137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
@@ -2149,7 +2175,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>19</v>
@@ -2169,8 +2195,11 @@
       <c r="U6" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -2188,7 +2217,7 @@
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H7" s="22">
         <v>5</v>
@@ -2197,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>19</v>
@@ -2208,13 +2237,13 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
       <c r="O7" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R7" s="41" t="s">
         <v>90</v>
@@ -2223,13 +2252,13 @@
         <v>91</v>
       </c>
       <c r="T7" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -2245,7 +2274,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
       <c r="G8" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H8" s="22">
         <v>6</v>
@@ -2254,7 +2283,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>19</v>
@@ -2265,13 +2294,13 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R8" s="41" t="s">
         <v>87</v>
@@ -2280,13 +2309,13 @@
         <v>88</v>
       </c>
       <c r="T8" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U8" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2302,7 +2331,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="22">
         <v>7</v>
@@ -2311,7 +2340,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>20</v>
@@ -2324,7 +2353,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>20</v>
@@ -2336,16 +2365,19 @@
         <v>90</v>
       </c>
       <c r="S9" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="T9" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V9" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -2361,7 +2393,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
       <c r="G10" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="22">
         <v>8</v>
@@ -2370,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>19</v>
@@ -2381,7 +2413,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
       <c r="O10" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P10" s="39" t="s">
         <v>19</v>
@@ -2390,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="R10" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S10" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T10" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U10" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -2420,7 +2452,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11" s="22">
         <v>9</v>
@@ -2429,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>19</v>
@@ -2440,7 +2472,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>19</v>
@@ -2449,19 +2481,19 @@
         <v>5</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T11" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U11" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -2501,7 +2533,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>19</v>
@@ -2516,13 +2548,16 @@
         <v>88</v>
       </c>
       <c r="T12" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V12" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -2562,7 +2597,7 @@
         <v>33</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>19</v>
@@ -2577,13 +2612,16 @@
         <v>91</v>
       </c>
       <c r="T13" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U13" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V13" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -2601,7 +2639,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="22">
         <v>12</v>
@@ -2610,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>19</v>
@@ -2621,7 +2659,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>19</v>
@@ -2630,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="R14" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S14" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T14" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
@@ -2656,13 +2694,13 @@
         <v>113</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H15" s="22">
         <v>13</v>
@@ -2671,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>19</v>
@@ -2682,7 +2720,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>19</v>
@@ -2691,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="R15" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S15" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T15" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U15" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -2717,13 +2755,13 @@
         <v>113</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" s="22">
         <v>14</v>
@@ -2732,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>19</v>
@@ -2743,7 +2781,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="8"/>
       <c r="O16" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>19</v>
@@ -2752,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="R16" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S16" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S16" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T16" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U16" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -2778,13 +2816,13 @@
         <v>113</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H17" s="22">
         <v>15</v>
@@ -2793,7 +2831,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>20</v>
@@ -2806,7 +2844,7 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>20</v>
@@ -2821,13 +2859,16 @@
         <v>88</v>
       </c>
       <c r="T17" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U17" s="40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V17" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
@@ -2841,13 +2882,13 @@
         <v>113</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="22">
         <v>16</v>
@@ -2856,7 +2897,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>20</v>
@@ -2869,7 +2910,7 @@
         <v>33</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>19</v>
@@ -2884,13 +2925,16 @@
         <v>91</v>
       </c>
       <c r="T18" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U18" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V18" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
@@ -2904,13 +2948,13 @@
         <v>113</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="22">
         <v>17</v>
@@ -2932,7 +2976,7 @@
         <v>29</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>19</v>
@@ -2952,8 +2996,11 @@
       <c r="U19" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V19" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -2967,13 +3014,13 @@
         <v>113</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H20" s="22">
         <v>18</v>
@@ -2982,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>19</v>
@@ -2993,7 +3040,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9"/>
       <c r="O20" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>19</v>
@@ -3002,19 +3049,19 @@
         <v>8</v>
       </c>
       <c r="R20" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S20" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T20" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -3028,13 +3075,13 @@
         <v>113</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H21" s="22">
         <v>19</v>
@@ -3054,7 +3101,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
       <c r="O21" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -3063,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S21" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S21" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T21" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U21" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -3093,7 +3140,7 @@
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" s="22">
         <v>20</v>
@@ -3102,7 +3149,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>20</v>
@@ -3115,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>19</v>
@@ -3135,8 +3182,11 @@
       <c r="U22" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V22" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -3150,7 +3200,7 @@
         <v>101</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="21" t="s">
@@ -3163,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>19</v>
@@ -3174,7 +3224,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="8"/>
       <c r="O23" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -3183,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="R23" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="T23" s="42" t="s">
         <v>122</v>
       </c>
       <c r="U23" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -3209,7 +3259,7 @@
         <v>101</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="21" t="s">
@@ -3222,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>19</v>
@@ -3233,7 +3283,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="8"/>
       <c r="O24" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>19</v>
@@ -3242,19 +3292,19 @@
         <v>8</v>
       </c>
       <c r="R24" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S24" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="S24" s="40" t="s">
-        <v>208</v>
       </c>
       <c r="T24" s="42" t="s">
         <v>121</v>
       </c>
       <c r="U24" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -3268,11 +3318,11 @@
         <v>101</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="22">
         <v>23</v>
@@ -3294,7 +3344,7 @@
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>19</v>
@@ -3303,19 +3353,22 @@
         <v>8</v>
       </c>
       <c r="R25" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S25" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S25" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T25" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U25" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
@@ -3329,11 +3382,11 @@
         <v>101</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H26" s="22">
         <v>24</v>
@@ -3342,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K26" s="25" t="s">
         <v>20</v>
@@ -3355,7 +3408,7 @@
         <v>33</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>19</v>
@@ -3375,8 +3428,11 @@
       <c r="U26" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V26" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -3394,7 +3450,7 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H27" s="22">
         <v>25</v>
@@ -3403,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>19</v>
@@ -3416,7 +3472,7 @@
         <v>84</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>19</v>
@@ -3425,19 +3481,22 @@
         <v>8</v>
       </c>
       <c r="R27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S27" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="S27" s="40" t="s">
-        <v>208</v>
-      </c>
       <c r="T27" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U27" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="V27" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
@@ -3448,12 +3507,12 @@
         <v>114</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="22">
         <v>26</v>
@@ -3462,7 +3521,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>20</v>
@@ -3495,8 +3554,11 @@
       <c r="U28" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V28" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
@@ -3507,12 +3569,12 @@
         <v>114</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H29" s="22">
         <v>27</v>
@@ -3521,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>20</v>
@@ -3534,7 +3596,7 @@
         <v>83</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P29" s="39" t="s">
         <v>19</v>
@@ -3554,8 +3616,11 @@
       <c r="U29" s="40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V29" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -3566,7 +3631,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="34"/>
@@ -3580,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>20</v>
@@ -3598,7 +3663,7 @@
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
     </row>
-    <row r="31" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -3609,12 +3674,12 @@
         <v>114</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="34"/>
       <c r="G31" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H31" s="22">
         <v>29</v>
@@ -3623,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>19</v>
@@ -3649,13 +3714,13 @@
         <v>91</v>
       </c>
       <c r="T31" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U31" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3666,12 +3731,12 @@
         <v>114</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="34"/>
       <c r="G32" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H32" s="22">
         <v>30</v>
@@ -3704,10 +3769,13 @@
         <v>91</v>
       </c>
       <c r="T32" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U32" s="40" t="s">
         <v>92</v>
+      </c>
+      <c r="V32" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -4997,6 +5065,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5011,12 +5085,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A44">

--- a/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
+++ b/fuentes/contenidos/grado07/guion12/Escaleta_MA_07_12_CO (1).xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cen_3f_cdo_pc10a\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$Q$1:$Q$86</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -599,9 +600,6 @@
     <t>Mapa conceptual sobre el tema La semejanza</t>
   </si>
   <si>
-    <t>Actividad sobre el concpeto de semejanza</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las figuras semejantes</t>
   </si>
   <si>
@@ -669,6 +667,9 @@
   </si>
   <si>
     <t>Adriana Lasprilla</t>
+  </si>
+  <si>
+    <t>Actividad sobre el concepto de semejanza</t>
   </si>
 </sst>
 </file>
@@ -1352,18 +1353,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,24 +1423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1833,8 +1834,10 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1155" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1846,9 +1849,8 @@
     <col min="5" max="5" width="33.140625" style="96" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" style="97" customWidth="1"/>
     <col min="7" max="7" width="66.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="98" customWidth="1"/>
-    <col min="9" max="9" width="11" style="98" customWidth="1"/>
-    <col min="10" max="10" width="59.28515625" style="44" customWidth="1"/>
+    <col min="8" max="9" width="0.5703125" style="98" customWidth="1"/>
+    <col min="10" max="10" width="83.5703125" style="44" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="44" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="44" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="44" customWidth="1"/>
@@ -1863,96 +1865,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="102" t="s">
+      <c r="N1" s="120"/>
+      <c r="O1" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="118" t="s">
+      <c r="Q1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="118" t="s">
+      <c r="U1" s="102" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="109"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="119"/>
-    </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="103"/>
+    </row>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
@@ -2011,10 +2013,10 @@
         <v>89</v>
       </c>
       <c r="V3" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>85</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>20</v>
@@ -2069,16 +2071,16 @@
         <v>91</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>92</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
@@ -2196,10 +2198,10 @@
         <v>92</v>
       </c>
       <c r="V6" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>85</v>
       </c>
@@ -2255,10 +2257,10 @@
         <v>134</v>
       </c>
       <c r="U7" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -2312,10 +2314,10 @@
         <v>136</v>
       </c>
       <c r="U8" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2365,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="S9" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="T9" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="U9" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="40" t="s">
-        <v>201</v>
-      </c>
       <c r="V9" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -2422,19 +2424,19 @@
         <v>8</v>
       </c>
       <c r="R10" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T10" s="42" t="s">
         <v>140</v>
       </c>
       <c r="U10" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -2481,19 +2483,19 @@
         <v>5</v>
       </c>
       <c r="R11" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="S11" s="40" t="s">
         <v>204</v>
-      </c>
-      <c r="S11" s="40" t="s">
-        <v>205</v>
       </c>
       <c r="T11" s="42" t="s">
         <v>141</v>
       </c>
       <c r="U11" s="40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -2554,10 +2556,10 @@
         <v>89</v>
       </c>
       <c r="V12" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -2618,10 +2620,10 @@
         <v>92</v>
       </c>
       <c r="V13" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -2668,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="R14" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T14" s="42" t="s">
         <v>144</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
@@ -2729,19 +2731,19 @@
         <v>8</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S15" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="T15" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="T15" s="42" t="s">
-        <v>207</v>
-      </c>
       <c r="U15" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -2790,19 +2792,19 @@
         <v>8</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S16" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T16" s="42" t="s">
         <v>148</v>
       </c>
       <c r="U16" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>85</v>
       </c>
@@ -2865,10 +2867,10 @@
         <v>89</v>
       </c>
       <c r="V17" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
@@ -2931,10 +2933,10 @@
         <v>92</v>
       </c>
       <c r="V18" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
@@ -2997,10 +2999,10 @@
         <v>92</v>
       </c>
       <c r="V19" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -3049,19 +3051,19 @@
         <v>8</v>
       </c>
       <c r="R20" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S20" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T20" s="42" t="s">
         <v>155</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -3110,19 +3112,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S21" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T21" s="42" t="s">
         <v>157</v>
       </c>
       <c r="U21" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>85</v>
       </c>
@@ -3140,7 +3142,7 @@
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="22">
         <v>20</v>
@@ -3149,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>20</v>
@@ -3183,10 +3185,10 @@
         <v>92</v>
       </c>
       <c r="V22" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -3233,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="R23" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S23" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T23" s="42" t="s">
         <v>122</v>
       </c>
       <c r="U23" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -3292,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="R24" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S24" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T24" s="42" t="s">
         <v>121</v>
       </c>
       <c r="U24" s="40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -3353,22 +3355,22 @@
         <v>8</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S25" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T25" s="42" t="s">
         <v>160</v>
       </c>
       <c r="U25" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V25" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
@@ -3429,10 +3431,10 @@
         <v>92</v>
       </c>
       <c r="V26" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
@@ -3481,22 +3483,22 @@
         <v>8</v>
       </c>
       <c r="R27" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S27" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T27" s="42" t="s">
         <v>162</v>
       </c>
       <c r="U27" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V27" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
@@ -3512,7 +3514,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
       <c r="G28" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H28" s="22">
         <v>26</v>
@@ -3521,7 +3523,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>20</v>
@@ -3555,10 +3557,10 @@
         <v>92</v>
       </c>
       <c r="V28" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
@@ -3574,7 +3576,7 @@
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
       <c r="G29" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H29" s="22">
         <v>27</v>
@@ -3583,7 +3585,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>20</v>
@@ -3617,10 +3619,10 @@
         <v>92</v>
       </c>
       <c r="V29" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -3663,7 +3665,7 @@
       <c r="T30" s="52"/>
       <c r="U30" s="53"/>
     </row>
-    <row r="31" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -3714,13 +3716,13 @@
         <v>91</v>
       </c>
       <c r="T31" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U31" s="40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3769,13 +3771,13 @@
         <v>91</v>
       </c>
       <c r="T32" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U32" s="40" t="s">
         <v>92</v>
       </c>
       <c r="V32" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -5065,12 +5067,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5085,6 +5081,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A44">
@@ -7092,4 +7094,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <f>C3*D4</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <f>C4*D3</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>C3/C4</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>D3/D4</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>